--- a/biology/Botanique/Cnidosporidie/Cnidosporidie.xlsx
+++ b/biology/Botanique/Cnidosporidie/Cnidosporidie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cnidosporidies (Cnidoporidia ou Cnidospora) sont des parasites de l'intestin des reptiles, des amphibiens, ou des poissons. Leur nature plurinuclée mais syncticiale en fait des métazoaires et la formation de spores des champignons.
 Les Cnidosporidies présentent des affinités morphologiques avec les cellules urticantes (cnidoblastes) du tissu épidermique des Cnidaires.
@@ -512,17 +524,19 @@
           <t>Classification classique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Dans la classification classique, les Cnidosporidies étaient antérieurement rattachées aux Protozoaires. 
-Selon Wenyon (1926)[1] :
+Selon Wenyon (1926) :
 embranchement Protozoa
 sous-embranchement Plasmodroma
 classe Cnidosporidia
 ordre Myxosporidiida
 ordre Microsporidiida
 ordre Actinomyxidiida
-Selon Kudo (1931)[2] :
+Selon Kudo (1931) :
 embranchement Protozoa
 classe Sporozoa
 sous-classe Cnidosporidia
@@ -530,14 +544,14 @@
 ordre Actinomyxidia
 ordre Microsporidia
 ordre Helicosporidia
-Selon Grassé et al. (1953)[3] :
+Selon Grassé et al. (1953) :
 embranchement des Protozoaires (Protozoa)
 sous-embranchement des Cnidosporidies (Cnidosporidia)
 ordre des Myxosporidies
 ordre des Microsporidies
 ordre des Actinomyxidies
 ordre des Paramyxidies
-Selon Honigberg et al. (1964)[4] :
+Selon Honigberg et al. (1964) :
 embranchement Protozoa
 sous-embranchement Cnidospora
 classe Myxosporidea
@@ -546,7 +560,7 @@
 ordre Helicosporida
 classe Microsporidea
 ordre Microsporida
-Selon Levine et al. (1980)[5] :
+Selon Levine et al. (1980) :
 sous-règne Protozoa
 embranchement Microspora
 classe Rudimicrosporea
